--- a/中国区验收需求.xlsx
+++ b/中国区验收需求.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythons\SQLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQLite_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F1E28-CBC8-40D8-AAEE-95CCD6AF9FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC0EB3-CF31-4590-8A32-0A11CEDA6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3165" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置查询" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="2219">
   <si>
     <t>不带</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7644,6 +7644,10 @@
   </si>
   <si>
     <t>2102312CFB10H2000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAA/BBBB/CCCC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8244,16 +8248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N926"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="46.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="3.625" style="2" customWidth="1"/>
     <col min="5" max="7" width="9" style="15"/>
     <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
@@ -8295,7 +8299,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -8325,7 +8329,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -8882,7 +8886,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
@@ -8916,7 +8920,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>41</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
@@ -8949,8 +8953,11 @@
       <c r="F36" s="16" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I36" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>43</v>
       </c>
@@ -8967,7 +8974,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
@@ -8984,7 +8991,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>45</v>
       </c>
@@ -9001,7 +9008,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
@@ -9018,7 +9025,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>47</v>
       </c>
@@ -9035,7 +9042,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
@@ -9052,7 +9059,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>50</v>
       </c>
@@ -9086,7 +9093,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
@@ -9103,7 +9110,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>52</v>
       </c>
@@ -9120,7 +9127,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
@@ -9137,7 +9144,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
